--- a/WebContent/Assets/movies.xlsx
+++ b/WebContent/Assets/movies.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
